--- a/Notebooks/LETU_v2_add_bonuses_and_NPL/res.xlsx
+++ b/Notebooks/LETU_v2_add_bonuses_and_NPL/res.xlsx
@@ -461,18 +461,18 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CatBoost Regressor w/ Replace Nullable Types Transformer + Imputer + Select Columns Transformer</t>
+          <t>Elastic Net Regressor w/ Replace Nullable Types Transformer + Imputer + Standard Scaler + RF Regressor Select From Model</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.574503587492216</v>
+        <v>0.5318603528680442</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001992569845134317</v>
+        <v>0.003391894563303272</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>{'Imputer': {'categorical_impute_strategy': 'most_frequent', 'numeric_impute_strategy': 'mean', 'boolean_impute_strategy': 'most_frequent', 'categorical_fill_value': None, 'numeric_fill_value': None, 'boolean_fill_value': None}, 'Select Columns Transformer': {'columns': [0, 4, 6, 7, 8, 9, 10, 14, 17, 18, 19, 21, 23, 25, 26]}, 'CatBoost Regressor': {'n_estimators': 10, 'eta': 0.03, 'max_depth': 6, 'bootstrap_type': None, 'silent': False, 'allow_writing_files': False, 'n_jobs': -1}}</t>
+          <t>{'Imputer': {'categorical_impute_strategy': 'most_frequent', 'numeric_impute_strategy': 'mean', 'boolean_impute_strategy': 'most_frequent', 'categorical_fill_value': None, 'numeric_fill_value': None, 'boolean_fill_value': None}, 'RF Regressor Select From Model': {'number_features': None, 'n_estimators': 10, 'max_depth': None, 'percent_features': 0.5, 'threshold': 'median', 'n_jobs': -1}, 'Elastic Net Regressor': {'alpha': 0.0001, 'l1_ratio': 0.15, 'max_iter': 1000, 'normalize': False}}</t>
         </is>
       </c>
     </row>
@@ -486,7 +486,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.574534961201054</v>
+        <v>0.5318783936223609</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -507,14 +507,14 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.574534961201054</v>
+        <v>0.5318783936223609</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>{'Imputer': {'categorical_impute_strategy': 'most_frequent', 'numeric_impute_strategy': 'median', 'boolean_impute_strategy': 'most_frequent', 'categorical_fill_value': None, 'numeric_fill_value': None, 'boolean_fill_value': None}, 'Select Columns Transformer': {'columns': [0, 4, 6, 7, 8, 9, 10, 14, 17, 18, 19, 21, 23, 25, 26]}, 'Elastic Net Regressor': {'alpha': 0.27265629458011326, 'l1_ratio': 0.47766511732135, 'max_iter': 1000, 'normalize': False}}</t>
+          <t>{'Imputer': {'categorical_impute_strategy': 'most_frequent', 'numeric_impute_strategy': 'median', 'boolean_impute_strategy': 'most_frequent', 'categorical_fill_value': None, 'numeric_fill_value': None, 'boolean_fill_value': None}, 'Select Columns Transformer': {'columns': [0, 1, 3, 14, 15, 16, 18, 19, 20, 21, 22, 23, 24, 25, 30, 32, 33, 34, 37, 40, 42, 43, 44]}, 'Elastic Net Regressor': {'alpha': 0.8360787635373778, 'l1_ratio': 0.33739616041726844, 'max_iter': 1000, 'normalize': False}}</t>
         </is>
       </c>
     </row>
@@ -524,39 +524,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Extra Trees Regressor w/ Replace Nullable Types Transformer + Imputer + Select Columns Transformer</t>
+          <t>CatBoost Regressor w/ Replace Nullable Types Transformer + Imputer + Select Columns Transformer</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.574605255690053</v>
+        <v>0.5318837020771378</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.004464460347441396</v>
+        <v>-0.0009980579847794187</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>{'Imputer': {'categorical_impute_strategy': 'most_frequent', 'numeric_impute_strategy': 'median', 'boolean_impute_strategy': 'most_frequent', 'categorical_fill_value': None, 'numeric_fill_value': None, 'boolean_fill_value': None}, 'Select Columns Transformer': {'columns': [0, 4, 6, 7, 8, 9, 10, 14, 17, 18, 19, 21, 23, 25, 26]}, 'Extra Trees Regressor': {'n_estimators': 547, 'max_features': 'auto', 'max_depth': 5, 'min_samples_split': 2, 'min_weight_fraction_leaf': 0.0, 'n_jobs': -1}}</t>
+          <t>{'Imputer': {'categorical_impute_strategy': 'most_frequent', 'numeric_impute_strategy': 'mean', 'boolean_impute_strategy': 'most_frequent', 'categorical_fill_value': None, 'numeric_fill_value': None, 'boolean_fill_value': None}, 'Select Columns Transformer': {'columns': [0, 1, 3, 14, 15, 16, 18, 19, 20, 21, 22, 23, 24, 25, 30, 32, 33, 34, 37, 40, 42, 43, 44]}, 'CatBoost Regressor': {'n_estimators': 10, 'eta': 0.03, 'max_depth': 6, 'bootstrap_type': None, 'silent': False, 'allow_writing_files': False, 'n_jobs': -1}}</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Elastic Net Regressor w/ Replace Nullable Types Transformer + Imputer + Standard Scaler + RF Regressor Select From Model</t>
+          <t>Random Forest Regressor w/ Replace Nullable Types Transformer + Imputer</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.574685597475376</v>
+        <v>0.5319753554895097</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.009567032681684772</v>
+        <v>-0.01823008197201702</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>{'Imputer': {'categorical_impute_strategy': 'most_frequent', 'numeric_impute_strategy': 'mean', 'boolean_impute_strategy': 'most_frequent', 'categorical_fill_value': None, 'numeric_fill_value': None, 'boolean_fill_value': None}, 'RF Regressor Select From Model': {'number_features': None, 'n_estimators': 10, 'max_depth': None, 'percent_features': 0.5, 'threshold': 'median', 'n_jobs': -1}, 'Elastic Net Regressor': {'alpha': 0.0001, 'l1_ratio': 0.15, 'max_iter': 1000, 'normalize': False}}</t>
+          <t>{'Imputer': {'categorical_impute_strategy': 'most_frequent', 'numeric_impute_strategy': 'mean', 'boolean_impute_strategy': 'most_frequent', 'categorical_fill_value': None, 'numeric_fill_value': None, 'boolean_fill_value': None}, 'Random Forest Regressor': {'n_estimators': 100, 'max_depth': 6, 'n_jobs': -1}}</t>
         </is>
       </c>
     </row>
